--- a/WorkBook.xlsx
+++ b/WorkBook.xlsx
@@ -2191,13 +2191,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>326900.0</v>
+        <v>201201.0</v>
       </c>
       <c r="D2" t="n">
-        <v>10400.0</v>
+        <v>14900.0</v>
       </c>
       <c r="E2" t="n">
-        <v>152600.0</v>
+        <v>274799.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2208,13 +2208,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>166900.0</v>
+        <v>133401.0</v>
       </c>
       <c r="D3" t="n">
-        <v>4900.0</v>
+        <v>4699.0</v>
       </c>
       <c r="E3" t="n">
-        <v>228700.0</v>
+        <v>101700.0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2225,13 +2225,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>208100.0</v>
+        <v>486200.0</v>
       </c>
       <c r="D4" t="n">
-        <v>4400.0</v>
+        <v>8600.0</v>
       </c>
       <c r="E4" t="n">
-        <v>111800.0</v>
+        <v>2338900.0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,13 +2242,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2223400.0</v>
+        <v>2854200.0</v>
       </c>
       <c r="D5" t="n">
-        <v>21900.0</v>
+        <v>21399.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1969600.0</v>
+        <v>2596700.0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,13 +2259,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>812000.0</v>
+        <v>861001.0</v>
       </c>
       <c r="D6" t="n">
-        <v>20700.0</v>
+        <v>26101.0</v>
       </c>
       <c r="E6" t="n">
-        <v>770200.0</v>
+        <v>952200.0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,13 +2276,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1963300.0</v>
+        <v>849500.0</v>
       </c>
       <c r="D7" t="n">
-        <v>18300.0</v>
+        <v>20699.0</v>
       </c>
       <c r="E7" t="n">
-        <v>857000.0</v>
+        <v>1.0753701E7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,13 +2293,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2819800.0</v>
+        <v>272899.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33800.0</v>
+        <v>41600.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2578400.0</v>
+        <v>225901.0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,13 +2310,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3756000.0</v>
+        <v>273300.0</v>
       </c>
       <c r="D9" t="n">
-        <v>42400.0</v>
+        <v>40900.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3173100.0</v>
+        <v>190000.0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,13 +2327,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>4731100.0</v>
+        <v>279600.0</v>
       </c>
       <c r="D10" t="n">
-        <v>148800.0</v>
+        <v>332801.0</v>
       </c>
       <c r="E10" t="n">
-        <v>4238100.0</v>
+        <v>237000.0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,13 +2344,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.87833E7</v>
+        <v>5849901.0</v>
       </c>
       <c r="D11" t="n">
-        <v>195700.0</v>
+        <v>228700.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.70431E7</v>
+        <v>1.68508E7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,13 +2361,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>4786900.0</v>
+        <v>7450701.0</v>
       </c>
       <c r="D12" t="n">
-        <v>716400.0</v>
+        <v>174800.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3381900.0</v>
+        <v>6564000.0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,13 +2378,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>5155900.0</v>
+        <v>8417200.0</v>
       </c>
       <c r="D13" t="n">
-        <v>996900.0</v>
+        <v>227900.0</v>
       </c>
       <c r="E13" t="n">
-        <v>3068000.0</v>
+        <v>7095500.0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,13 +2395,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.83533E7</v>
+        <v>1.45827E7</v>
       </c>
       <c r="D14" t="n">
-        <v>301100.0</v>
+        <v>213200.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.32345E7</v>
+        <v>1.60242E7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,13 +2412,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.19916E7</v>
+        <v>1.8352199E7</v>
       </c>
       <c r="D15" t="n">
-        <v>1450200.0</v>
+        <v>291799.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.30413E7</v>
+        <v>7226401.0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,13 +2429,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1.38164E7</v>
+        <v>1.30729E7</v>
       </c>
       <c r="D16" t="n">
-        <v>291700.0</v>
+        <v>212800.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.04165E7</v>
+        <v>8995200.0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,13 +2446,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>2.04651E7</v>
+        <v>2.0273699E7</v>
       </c>
       <c r="D17" t="n">
-        <v>1633900.0</v>
+        <v>353499.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.71801E7</v>
+        <v>1.8333801E7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2463,13 +2463,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1.73575E7</v>
+        <v>2.34381E7</v>
       </c>
       <c r="D18" t="n">
-        <v>403500.0</v>
+        <v>384700.0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.80479E7</v>
+        <v>1.18723E7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2480,13 +2480,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>1.32956E7</v>
+        <v>2.47897E7</v>
       </c>
       <c r="D19" t="n">
-        <v>223700.0</v>
+        <v>232701.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.1404E7</v>
+        <v>1.4658799E7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,13 +2497,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>2.88372E7</v>
+        <v>2.57669E7</v>
       </c>
       <c r="D20" t="n">
-        <v>916400.0</v>
+        <v>103201.0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.3875E7</v>
+        <v>1.71282E7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2514,13 +2514,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>2.53053E7</v>
+        <v>2.58141E7</v>
       </c>
       <c r="D21" t="n">
-        <v>86000.0</v>
+        <v>97300.0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.00746E7</v>
+        <v>2.53636E7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2531,13 +2531,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>2.29895E7</v>
+        <v>2.8774801E7</v>
       </c>
       <c r="D22" t="n">
-        <v>88700.0</v>
+        <v>97900.0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.0425E7</v>
+        <v>1.72966E7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,13 +2548,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>3.17413E7</v>
+        <v>2.38339E7</v>
       </c>
       <c r="D23" t="n">
-        <v>128100.0</v>
+        <v>120201.0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.71014E7</v>
+        <v>2.5105701E7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,13 +2565,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>2.25869E7</v>
+        <v>2.79782E7</v>
       </c>
       <c r="D24" t="n">
-        <v>146700.0</v>
+        <v>140100.0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.78099E7</v>
+        <v>1.8540501E7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2582,13 +2582,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>1.81978E7</v>
+        <v>2.5498901E7</v>
       </c>
       <c r="D25" t="n">
-        <v>194500.0</v>
+        <v>655799.0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.55169E7</v>
+        <v>2.02956E7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,13 +2599,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>9.65901E7</v>
+        <v>9.94102E7</v>
       </c>
       <c r="D26" t="n">
-        <v>95900.0</v>
+        <v>12900.0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.86892E7</v>
+        <v>8.25076E7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2616,13 +2616,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>9.27081E7</v>
+        <v>6.82403E7</v>
       </c>
       <c r="D27" t="n">
-        <v>19700.0</v>
+        <v>10200.0</v>
       </c>
       <c r="E27" t="n">
-        <v>5.80798E7</v>
+        <v>5.03986E7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,13 +2633,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>5.89102E7</v>
+        <v>7.68308E7</v>
       </c>
       <c r="D28" t="n">
-        <v>10200.0</v>
+        <v>11501.0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.44147E7</v>
+        <v>6.1713799E7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,13 +2650,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>6.448747E8</v>
+        <v>4.20047E8</v>
       </c>
       <c r="D29" t="n">
-        <v>54600.0</v>
+        <v>27600.0</v>
       </c>
       <c r="E29" t="n">
-        <v>5.278544E8</v>
+        <v>3.37103999E8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,13 +2667,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>6.489053E8</v>
+        <v>4.963279E8</v>
       </c>
       <c r="D30" t="n">
-        <v>20600.0</v>
+        <v>30600.0</v>
       </c>
       <c r="E30" t="n">
-        <v>3.615961E8</v>
+        <v>5.04624299E8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,13 +2684,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>3.597101E8</v>
+        <v>4.040246E8</v>
       </c>
       <c r="D31" t="n">
-        <v>21200.0</v>
+        <v>22500.0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.790402E8</v>
+        <v>3.12761E8</v>
       </c>
     </row>
   </sheetData>

--- a/WorkBook.xlsx
+++ b/WorkBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/felipe_alcazar_alu_uclm_es/Documents/1st Software Engineering/2nd Term/Programming Methodology/Lab Sessions/P1/ArrayProyect/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\AppData\Local\Temp\Rar$DIa2300.7797\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="8_{3C319C7B-9A6A-40EF-9FDF-14AC16333CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6EE37BD-2964-4E75-A773-898BF127A840}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A8780-08A7-4E84-A37A-A186A666505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +101,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -113,6 +112,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t>Lab task1 (N&lt;=1000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -123,6 +178,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -135,9 +201,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$31</c:f>
+              <c:f>Sheet1!$A$2:$B$10</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>AO</c:v>
@@ -164,69 +230,6 @@
                     <c:v>DO</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
                     <c:v>NO</c:v>
                   </c:pt>
                 </c:lvl>
@@ -257,69 +260,6 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>5000</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>5000</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>5000</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>8000</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>8000</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>8000</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>9000</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>9000</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>9000</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>11000</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>11000</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>11000</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>20000</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>20000</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>20000</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>50000</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>50000</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>50000</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -327,112 +267,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>270400</c:v>
+                  <c:v>566400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577900</c:v>
+                  <c:v>161600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>542100</c:v>
+                  <c:v>187300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10918500</c:v>
+                  <c:v>4514900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16300200</c:v>
+                  <c:v>802100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66600</c:v>
+                  <c:v>1744500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>270900</c:v>
+                  <c:v>523900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>237600</c:v>
+                  <c:v>490500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40373100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8647100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9632100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38181100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23212800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11020900</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23002300</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23332800</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13187600</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31832400</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>48285200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>34935800</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40564900</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50811800</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22105300</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>76845300</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>71790900</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60862200</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>388228900</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>492628500</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>425910900</c:v>
+                  <c:v>389000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E8D0-4619-B724-833366AADA9A}"/>
+              <c16:uniqueId val="{00000000-BFCA-47E7-9805-D4AEAAE9084C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -445,9 +333,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$31</c:f>
+              <c:f>Sheet1!$A$2:$B$10</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>AO</c:v>
@@ -474,69 +362,6 @@
                     <c:v>DO</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
                     <c:v>NO</c:v>
                   </c:pt>
                 </c:lvl>
@@ -567,69 +392,6 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>5000</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>5000</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>5000</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>8000</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>8000</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>8000</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>9000</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>9000</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>9000</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>11000</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>11000</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>11000</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>20000</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>20000</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>20000</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>50000</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>50000</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>50000</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -637,112 +399,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23900</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6800</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19000</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73600</c:v>
+                  <c:v>1300100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74900</c:v>
+                  <c:v>22200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70300</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38200</c:v>
+                  <c:v>41300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151300</c:v>
+                  <c:v>42800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>782900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>221300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1686800</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>320300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1242900</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>216800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2887600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>361600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>149300</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>108100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>97500</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>95800</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>206000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>87700</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159800</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>418800</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14200</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24600</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25500</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31800</c:v>
+                  <c:v>40700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E8D0-4619-B724-833366AADA9A}"/>
+              <c16:uniqueId val="{00000001-BFCA-47E7-9805-D4AEAAE9084C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -755,9 +465,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$31</c:f>
+              <c:f>Sheet1!$A$2:$B$10</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>AO</c:v>
@@ -784,69 +494,6 @@
                     <c:v>DO</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>NO</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>AO</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>DO</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
                     <c:v>NO</c:v>
                   </c:pt>
                 </c:lvl>
@@ -877,69 +524,6 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>5000</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>5000</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>5000</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>8000</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>8000</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>8000</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>9000</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>9000</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>9000</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>11000</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>11000</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>11000</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>20000</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>20000</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>20000</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>50000</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>50000</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>50000</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -947,106 +531,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>113900</c:v>
+                  <c:v>79200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123500</c:v>
+                  <c:v>118800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>446200</c:v>
+                  <c:v>74900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9601900</c:v>
+                  <c:v>1967700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7037800</c:v>
+                  <c:v>879900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56500</c:v>
+                  <c:v>891700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>195900</c:v>
+                  <c:v>356900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>209300</c:v>
+                  <c:v>340800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>196000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5898000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9597500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11336000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19474900</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12226300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10058900</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18543500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21317600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9790600</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26032400</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41671000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27632400</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19095900</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27067600</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23461700</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>61640100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>61731100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50547100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>372916700</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>398786900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>391065700</c:v>
+                  <c:v>411900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E8D0-4619-B724-833366AADA9A}"/>
+              <c16:uniqueId val="{00000002-BFCA-47E7-9805-D4AEAAE9084C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1060,11 +581,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="368852576"/>
-        <c:axId val="368854656"/>
+        <c:axId val="773534544"/>
+        <c:axId val="773526672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368852576"/>
+        <c:axId val="773534544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +628,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368854656"/>
+        <c:crossAx val="773526672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1115,7 +636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368854656"/>
+        <c:axId val="773526672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +687,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368852576"/>
+        <c:crossAx val="773534544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,6 +699,3048 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Lab</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Task1(N&gt;1000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$11:$B$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>11000</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>11000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>11000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>20000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>20000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$C$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$11:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4106700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3849300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6551200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17627100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20125100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10683200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62465300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17961300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17911700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26329800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36641300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25270900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27464200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39845400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21665200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88580000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76476700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70034500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>401191200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>469051400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>407860800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44F6-49C9-987E-E115953B76F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$11:$B$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>11000</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>11000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>11000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>20000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>20000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$2:$D$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$11:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2872000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>325200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7087400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>641800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>178700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-44F6-49C9-987E-E115953B76F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$11:$B$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>AO</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>DO</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>11000</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>11000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>11000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>20000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>20000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$11:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3520400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35394200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64385300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18974600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16374400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8195500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22282800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19062200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12420400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22559600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24466100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25919900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27342300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50492900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17190300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65661200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61329600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49761700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>303537500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>513652300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>302167600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-44F6-49C9-987E-E115953B76F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="652015928"/>
+        <c:axId val="652016256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="652015928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652016256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="652016256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652015928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Ascending Order</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$2,Sheet1!$A$5,Sheet1!$A$8,Sheet1!$A$11,Sheet1!$A$14,Sheet1!$A$17,Sheet1!$A$20,Sheet1!$A$23,Sheet1!$A$26,Sheet1!$A$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$C$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$5,Sheet1!$C$8,Sheet1!$C$11,Sheet1!$C$14,Sheet1!$C$17,Sheet1!$C$20,Sheet1!$C$23,Sheet1!$C$26,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>566400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4514900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4106700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17627100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62465300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26329800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27464200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88580000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>401191200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8401-4DD5-BB0D-0E26ED3E8324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$2,Sheet1!$A$5,Sheet1!$A$8,Sheet1!$A$11,Sheet1!$A$14,Sheet1!$A$17,Sheet1!$A$20,Sheet1!$A$23,Sheet1!$A$26,Sheet1!$A$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$2:$D$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$2,Sheet1!$D$5,Sheet1!$D$8,Sheet1!$D$11,Sheet1!$D$14,Sheet1!$D$17,Sheet1!$D$20,Sheet1!$D$23,Sheet1!$D$26,Sheet1!$D$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7087400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8401-4DD5-BB0D-0E26ED3E8324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$2,Sheet1!$A$5,Sheet1!$A$8,Sheet1!$A$11,Sheet1!$A$14,Sheet1!$A$17,Sheet1!$A$20,Sheet1!$A$23,Sheet1!$A$26,Sheet1!$A$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$E$2,Sheet1!$E$5,Sheet1!$E$8,Sheet1!$E$11,Sheet1!$E$14,Sheet1!$E$17,Sheet1!$E$20,Sheet1!$E$23,Sheet1!$E$26,Sheet1!$E$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>79200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1967700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>356900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3520400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18974600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22282800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22559600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27342300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65661200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>303537500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8401-4DD5-BB0D-0E26ED3E8324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="442062872"/>
+        <c:axId val="442063528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="442062872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442063528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442063528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442062872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Descending order</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35412489063867014"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$6,Sheet1!$A$9,Sheet1!$A$12,Sheet1!$A$15,Sheet1!$A$18,Sheet1!$A$21,Sheet1!$A$24,Sheet1!$A$27,Sheet1!$A$30)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$C$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$3,Sheet1!$C$6,Sheet1!$C$9,Sheet1!$C$12,Sheet1!$C$15,Sheet1!$C$18,Sheet1!$C$21,Sheet1!$C$24,Sheet1!$C$27,Sheet1!$C$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>161600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>802100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>490500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3849300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20125100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17961300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36641300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39845400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76476700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>469051400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91A4-4CBC-823B-34C320337E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$6,Sheet1!$A$9,Sheet1!$A$12,Sheet1!$A$15,Sheet1!$A$18,Sheet1!$A$21,Sheet1!$A$24,Sheet1!$A$27,Sheet1!$A$30)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$2:$D$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$3,Sheet1!$D$6,Sheet1!$D$9,Sheet1!$D$12,Sheet1!$D$15,Sheet1!$D$18,Sheet1!$D$21,Sheet1!$D$24,Sheet1!$D$27,Sheet1!$D$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>179900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>641800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-91A4-4CBC-823B-34C320337E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$6,Sheet1!$A$9,Sheet1!$A$12,Sheet1!$A$15,Sheet1!$A$18,Sheet1!$A$21,Sheet1!$A$24,Sheet1!$A$27,Sheet1!$A$30)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$E$3,Sheet1!$E$6,Sheet1!$E$9,Sheet1!$E$12,Sheet1!$E$15,Sheet1!$E$18,Sheet1!$E$21,Sheet1!$E$24,Sheet1!$E$27,Sheet1!$E$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>118800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>879900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35394200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16374400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19062200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24466100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50492900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61329600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>513652300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-91A4-4CBC-823B-34C320337E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="797960712"/>
+        <c:axId val="797961696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="797960712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797961696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="797961696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797960712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>No</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> order</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$4,Sheet1!$A$7,Sheet1!$A$10,Sheet1!$A$13,Sheet1!$A$16,Sheet1!$A$19,Sheet1!$A$22,Sheet1!$A$25,Sheet1!$A$28,Sheet1!$A$31)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$C$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$4,Sheet1!$C$7,Sheet1!$C$10,Sheet1!$C$13,Sheet1!$C$16,Sheet1!$C$19,Sheet1!$C$22,Sheet1!$C$25,Sheet1!$C$28,Sheet1!$C$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>187300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1744500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>389000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6551200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10683200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17911700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25270900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21665200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70034500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>407860800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A68F-4C90-AB6B-8D5B48B319F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$4,Sheet1!$A$7,Sheet1!$A$10,Sheet1!$A$13,Sheet1!$A$16,Sheet1!$A$19,Sheet1!$A$22,Sheet1!$A$25,Sheet1!$A$28,Sheet1!$A$31)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$2:$D$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$4,Sheet1!$D$7,Sheet1!$D$10,Sheet1!$D$13,Sheet1!$D$16,Sheet1!$D$19,Sheet1!$D$22,Sheet1!$D$25,Sheet1!$D$28,Sheet1!$D$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2872000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A68F-4C90-AB6B-8D5B48B319F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$31</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$4,Sheet1!$A$7,Sheet1!$A$10,Sheet1!$A$13,Sheet1!$A$16,Sheet1!$A$19,Sheet1!$A$22,Sheet1!$A$25,Sheet1!$A$28,Sheet1!$A$31)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$E$4,Sheet1!$E$7,Sheet1!$E$10,Sheet1!$E$13,Sheet1!$E$16,Sheet1!$E$19,Sheet1!$E$22,Sheet1!$E$25,Sheet1!$E$28,Sheet1!$E$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>74900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>891700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>411900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64385300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8195500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12420400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25919900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17190300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49761700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302167600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A68F-4C90-AB6B-8D5B48B319F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="652013960"/>
+        <c:axId val="652014288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="652013960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652014288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="652014288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652013960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1262,6 +3825,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1765,27 +4488,2039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409013</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34738</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>554690</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>34737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>110938</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C916F90-2D87-48BC-AA1C-427097A0BE79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548760AA-CA30-427B-BE27-3EB262272E87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,6 +6533,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>448237</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46591F6C-6A3D-4C9B-9E88-4030A8BB35F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39219</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1EDE15-1677-4504-B6ED-0CD4B46A4316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>649940</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56ABF013-F662-41D3-85DA-704557EDD429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>420220</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607BBB02-7C05-4CE2-AB88-7A6A29202D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2083,87 +6962,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="15" max="16" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="20" max="21" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="22" max="23" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="24" max="26" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="45" max="46" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="50" max="51" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="52" max="53" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="54" max="56" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="61" max="62" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="65" max="66" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="75" max="76" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="79" max="79" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="80" max="81" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="82" max="83" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="84" max="86" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
-    <col min="89" max="89" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="91" max="92" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="95" max="96" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="51" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="53" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="56" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="62" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="66" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="76" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="81" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="83" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="86" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="92" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="96" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="28.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,14 +7069,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>201201.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14900.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>274799.0</v>
+      <c r="C2">
+        <v>566400</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2">
+        <v>79200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2207,14 +7086,14 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>133401.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4699.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>101700.0</v>
+      <c r="C3">
+        <v>161600</v>
+      </c>
+      <c r="D3">
+        <v>6600</v>
+      </c>
+      <c r="E3">
+        <v>118800</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,14 +7103,14 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>486200.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8600.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2338900.0</v>
+      <c r="C4">
+        <v>187300</v>
+      </c>
+      <c r="D4">
+        <v>3500</v>
+      </c>
+      <c r="E4">
+        <v>74900</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,14 +7120,14 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>2854200.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21399.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2596700.0</v>
+      <c r="C5">
+        <v>4514900</v>
+      </c>
+      <c r="D5">
+        <v>1300100</v>
+      </c>
+      <c r="E5">
+        <v>1967700</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,14 +7137,14 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>861001.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>26101.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>952200.0</v>
+      <c r="C6">
+        <v>802100</v>
+      </c>
+      <c r="D6">
+        <v>22200</v>
+      </c>
+      <c r="E6">
+        <v>879900</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2275,14 +7154,14 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>849500.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20699.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.0753701E7</v>
+      <c r="C7">
+        <v>1744500</v>
+      </c>
+      <c r="D7">
+        <v>18000</v>
+      </c>
+      <c r="E7">
+        <v>891700</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,14 +7171,14 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>272899.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>41600.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>225901.0</v>
+      <c r="C8">
+        <v>523900</v>
+      </c>
+      <c r="D8">
+        <v>41300</v>
+      </c>
+      <c r="E8">
+        <v>356900</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,14 +7188,14 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>273300.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>40900.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>190000.0</v>
+      <c r="C9">
+        <v>490500</v>
+      </c>
+      <c r="D9">
+        <v>42800</v>
+      </c>
+      <c r="E9">
+        <v>340800</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,14 +7205,14 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
-        <v>279600.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>332801.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>237000.0</v>
+      <c r="C10">
+        <v>389000</v>
+      </c>
+      <c r="D10">
+        <v>40700</v>
+      </c>
+      <c r="E10">
+        <v>411900</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,14 +7222,14 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>5849901.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>228700.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.68508E7</v>
+      <c r="C11">
+        <v>4106700</v>
+      </c>
+      <c r="D11">
+        <v>135000</v>
+      </c>
+      <c r="E11">
+        <v>3520400</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,14 +7239,14 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
-        <v>7450701.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>174800.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6564000.0</v>
+      <c r="C12">
+        <v>3849300</v>
+      </c>
+      <c r="D12">
+        <v>179900</v>
+      </c>
+      <c r="E12">
+        <v>35394200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,14 +7256,14 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>8417200.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>227900.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7095500.0</v>
+      <c r="C13">
+        <v>6551200</v>
+      </c>
+      <c r="D13">
+        <v>2872000</v>
+      </c>
+      <c r="E13">
+        <v>64385300</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,14 +7273,14 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.45827E7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>213200.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.60242E7</v>
+      <c r="C14">
+        <v>17627100</v>
+      </c>
+      <c r="D14">
+        <v>325200</v>
+      </c>
+      <c r="E14">
+        <v>18974600</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,14 +7290,14 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.8352199E7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>291799.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7226401.0</v>
+      <c r="C15">
+        <v>20125100</v>
+      </c>
+      <c r="D15">
+        <v>325700</v>
+      </c>
+      <c r="E15">
+        <v>16374400</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2428,14 +7307,14 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.30729E7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>212800.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8995200.0</v>
+      <c r="C16">
+        <v>10683200</v>
+      </c>
+      <c r="D16">
+        <v>211700</v>
+      </c>
+      <c r="E16">
+        <v>8195500</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2445,14 +7324,14 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>2.0273699E7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>353499.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.8333801E7</v>
+      <c r="C17">
+        <v>62465300</v>
+      </c>
+      <c r="D17">
+        <v>7087400</v>
+      </c>
+      <c r="E17">
+        <v>22282800</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,14 +7341,14 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="n">
-        <v>2.34381E7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>384700.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.18723E7</v>
+      <c r="C18">
+        <v>17961300</v>
+      </c>
+      <c r="D18">
+        <v>641800</v>
+      </c>
+      <c r="E18">
+        <v>19062200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2479,14 +7358,14 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="n">
-        <v>2.47897E7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>232701.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.4658799E7</v>
+      <c r="C19">
+        <v>17911700</v>
+      </c>
+      <c r="D19">
+        <v>125900</v>
+      </c>
+      <c r="E19">
+        <v>12420400</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2496,14 +7375,14 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="n">
-        <v>2.57669E7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>103201.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.71282E7</v>
+      <c r="C20">
+        <v>26329800</v>
+      </c>
+      <c r="D20">
+        <v>109300</v>
+      </c>
+      <c r="E20">
+        <v>22559600</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2513,14 +7392,14 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
-        <v>2.58141E7</v>
-      </c>
-      <c r="D21" t="n">
-        <v>97300.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2.53636E7</v>
+      <c r="C21">
+        <v>36641300</v>
+      </c>
+      <c r="D21">
+        <v>101500</v>
+      </c>
+      <c r="E21">
+        <v>24466100</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,14 +7409,14 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="n">
-        <v>2.8774801E7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>97900.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.72966E7</v>
+      <c r="C22">
+        <v>25270900</v>
+      </c>
+      <c r="D22">
+        <v>107400</v>
+      </c>
+      <c r="E22">
+        <v>25919900</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2547,14 +7426,14 @@
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="n">
-        <v>2.38339E7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>120201.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2.5105701E7</v>
+      <c r="C23">
+        <v>27464200</v>
+      </c>
+      <c r="D23">
+        <v>124800</v>
+      </c>
+      <c r="E23">
+        <v>27342300</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2564,14 +7443,14 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="n">
-        <v>2.79782E7</v>
-      </c>
-      <c r="D24" t="n">
-        <v>140100.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.8540501E7</v>
+      <c r="C24">
+        <v>39845400</v>
+      </c>
+      <c r="D24">
+        <v>131700</v>
+      </c>
+      <c r="E24">
+        <v>50492900</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,14 +7460,14 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="n">
-        <v>2.5498901E7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>655799.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.02956E7</v>
+      <c r="C25">
+        <v>21665200</v>
+      </c>
+      <c r="D25">
+        <v>178700</v>
+      </c>
+      <c r="E25">
+        <v>17190300</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,14 +7477,14 @@
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" t="n">
-        <v>9.94102E7</v>
-      </c>
-      <c r="D26" t="n">
-        <v>12900.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>8.25076E7</v>
+      <c r="C26">
+        <v>88580000</v>
+      </c>
+      <c r="D26">
+        <v>20900</v>
+      </c>
+      <c r="E26">
+        <v>65661200</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2615,14 +7494,14 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="n">
-        <v>6.82403E7</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10200.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5.03986E7</v>
+      <c r="C27">
+        <v>76476700</v>
+      </c>
+      <c r="D27">
+        <v>15700</v>
+      </c>
+      <c r="E27">
+        <v>61329600</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2632,14 +7511,14 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="n">
-        <v>7.68308E7</v>
-      </c>
-      <c r="D28" t="n">
-        <v>11501.0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.1713799E7</v>
+      <c r="C28">
+        <v>70034500</v>
+      </c>
+      <c r="D28">
+        <v>22500</v>
+      </c>
+      <c r="E28">
+        <v>49761700</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2649,14 +7528,14 @@
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" t="n">
-        <v>4.20047E8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>27600.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.37103999E8</v>
+      <c r="C29">
+        <v>401191200</v>
+      </c>
+      <c r="D29">
+        <v>30400</v>
+      </c>
+      <c r="E29">
+        <v>303537500</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,14 +7545,14 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" t="n">
-        <v>4.963279E8</v>
-      </c>
-      <c r="D30" t="n">
-        <v>30600.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5.04624299E8</v>
+      <c r="C30">
+        <v>469051400</v>
+      </c>
+      <c r="D30">
+        <v>30100</v>
+      </c>
+      <c r="E30">
+        <v>513652300</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2683,14 +7562,14 @@
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="n">
-        <v>4.040246E8</v>
-      </c>
-      <c r="D31" t="n">
-        <v>22500.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3.12761E8</v>
+      <c r="C31">
+        <v>407860800</v>
+      </c>
+      <c r="D31">
+        <v>21000</v>
+      </c>
+      <c r="E31">
+        <v>302167600</v>
       </c>
     </row>
   </sheetData>

--- a/WorkBook.xlsx
+++ b/WorkBook.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\AppData\Local\Temp\Rar$DIa2300.7797\"/>
     </mc:Choice>
@@ -50,6 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6968,81 +6969,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="36" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="51" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="53" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="56" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="62" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="66" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="76" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="81" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="83" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="86" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="92" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="96" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="28.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="10" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="20" max="21" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="24" max="26" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="50" max="51" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="52" max="53" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="54" max="56" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="61" max="62" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="65" max="66" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="75" max="76" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="80" max="81" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="82" max="83" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="84" max="86" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="91" max="92" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="95" max="96" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7069,14 +7070,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>566400</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
-        <v>79200</v>
+      <c r="C2" t="n">
+        <v>337000.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11500.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>141500.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7086,14 +7087,14 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>161600</v>
-      </c>
-      <c r="D3">
-        <v>6600</v>
-      </c>
-      <c r="E3">
-        <v>118800</v>
+      <c r="C3" t="n">
+        <v>104800.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74800.0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7103,14 +7104,14 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>187300</v>
-      </c>
-      <c r="D4">
-        <v>3500</v>
-      </c>
-      <c r="E4">
-        <v>74900</v>
+      <c r="C4" t="n">
+        <v>177200.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15200.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>122900.0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7120,14 +7121,14 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>4514900</v>
-      </c>
-      <c r="D5">
-        <v>1300100</v>
-      </c>
-      <c r="E5">
-        <v>1967700</v>
+      <c r="C5" t="n">
+        <v>3310400.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20500.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1945400.0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7137,14 +7138,14 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>802100</v>
-      </c>
-      <c r="D6">
-        <v>22200</v>
-      </c>
-      <c r="E6">
-        <v>879900</v>
+      <c r="C6" t="n">
+        <v>813400.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22400.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>878800.0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7154,14 +7155,14 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>1744500</v>
-      </c>
-      <c r="D7">
-        <v>18000</v>
-      </c>
-      <c r="E7">
-        <v>891700</v>
+      <c r="C7" t="n">
+        <v>1128200.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21900.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>897300.0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7171,14 +7172,14 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>523900</v>
-      </c>
-      <c r="D8">
-        <v>41300</v>
-      </c>
-      <c r="E8">
-        <v>356900</v>
+      <c r="C8" t="n">
+        <v>4759300.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50500.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>324600.0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7188,14 +7189,14 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>490500</v>
-      </c>
-      <c r="D9">
-        <v>42800</v>
-      </c>
-      <c r="E9">
-        <v>340800</v>
+      <c r="C9" t="n">
+        <v>3057100.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67200.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>200200.0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7205,14 +7206,14 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>389000</v>
-      </c>
-      <c r="D10">
-        <v>40700</v>
-      </c>
-      <c r="E10">
-        <v>411900</v>
+      <c r="C10" t="n">
+        <v>297400.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40900.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>229700.0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7222,14 +7223,14 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>4106700</v>
-      </c>
-      <c r="D11">
-        <v>135000</v>
-      </c>
-      <c r="E11">
-        <v>3520400</v>
+      <c r="C11" t="n">
+        <v>1.43899E7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>491100.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6091000.0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7239,14 +7240,14 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>3849300</v>
-      </c>
-      <c r="D12">
-        <v>179900</v>
-      </c>
-      <c r="E12">
-        <v>35394200</v>
+      <c r="C12" t="n">
+        <v>1.07024E7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>224500.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5527000.0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7256,14 +7257,14 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>6551200</v>
-      </c>
-      <c r="D13">
-        <v>2872000</v>
-      </c>
-      <c r="E13">
-        <v>64385300</v>
+      <c r="C13" t="n">
+        <v>6641800.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>740300.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6409500.0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7273,14 +7274,14 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>17627100</v>
-      </c>
-      <c r="D14">
-        <v>325200</v>
-      </c>
-      <c r="E14">
-        <v>18974600</v>
+      <c r="C14" t="n">
+        <v>2.82504E7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>329800.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.61102E7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7290,14 +7291,14 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>20125100</v>
-      </c>
-      <c r="D15">
-        <v>325700</v>
-      </c>
-      <c r="E15">
-        <v>16374400</v>
+      <c r="C15" t="n">
+        <v>2.04706E7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>680700.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.61416E7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7307,14 +7308,14 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
-        <v>10683200</v>
-      </c>
-      <c r="D16">
-        <v>211700</v>
-      </c>
-      <c r="E16">
-        <v>8195500</v>
+      <c r="C16" t="n">
+        <v>5.45841E7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1043400.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.18504E7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7324,14 +7325,14 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>62465300</v>
-      </c>
-      <c r="D17">
-        <v>7087400</v>
-      </c>
-      <c r="E17">
-        <v>22282800</v>
+      <c r="C17" t="n">
+        <v>3.32997E7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>600700.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.49719E7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7341,14 +7342,14 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
-        <v>17961300</v>
-      </c>
-      <c r="D18">
-        <v>641800</v>
-      </c>
-      <c r="E18">
-        <v>19062200</v>
+      <c r="C18" t="n">
+        <v>3.18083E7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1524700.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.48412E7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7358,14 +7359,14 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19">
-        <v>17911700</v>
-      </c>
-      <c r="D19">
-        <v>125900</v>
-      </c>
-      <c r="E19">
-        <v>12420400</v>
+      <c r="C19" t="n">
+        <v>3.26305E7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>90300.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.90121E7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7375,14 +7376,14 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>26329800</v>
-      </c>
-      <c r="D20">
-        <v>109300</v>
-      </c>
-      <c r="E20">
-        <v>22559600</v>
+      <c r="C20" t="n">
+        <v>3.63162E7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>112300.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.29064E7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7392,14 +7393,14 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>36641300</v>
-      </c>
-      <c r="D21">
-        <v>101500</v>
-      </c>
-      <c r="E21">
-        <v>24466100</v>
+      <c r="C21" t="n">
+        <v>3.43655E7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113400.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.10322E7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7409,14 +7410,14 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
-        <v>25270900</v>
-      </c>
-      <c r="D22">
-        <v>107400</v>
-      </c>
-      <c r="E22">
-        <v>25919900</v>
+      <c r="C22" t="n">
+        <v>3.31263E7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>103600.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.57567E7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7426,14 +7427,14 @@
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>27464200</v>
-      </c>
-      <c r="D23">
-        <v>124800</v>
-      </c>
-      <c r="E23">
-        <v>27342300</v>
+      <c r="C23" t="n">
+        <v>3.04103E7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>361500.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.25232E7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7443,14 +7444,14 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>39845400</v>
-      </c>
-      <c r="D24">
-        <v>131700</v>
-      </c>
-      <c r="E24">
-        <v>50492900</v>
+      <c r="C24" t="n">
+        <v>4.12291E7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>292600.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.90883E7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7460,14 +7461,14 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25">
-        <v>21665200</v>
-      </c>
-      <c r="D25">
-        <v>178700</v>
-      </c>
-      <c r="E25">
-        <v>17190300</v>
+      <c r="C25" t="n">
+        <v>3.45375E7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11000.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.99888E7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7477,14 +7478,14 @@
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>88580000</v>
-      </c>
-      <c r="D26">
-        <v>20900</v>
-      </c>
-      <c r="E26">
-        <v>65661200</v>
+      <c r="C26" t="n">
+        <v>1.374902E8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10400.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.98593E7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7494,14 +7495,14 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>76476700</v>
-      </c>
-      <c r="D27">
-        <v>15700</v>
-      </c>
-      <c r="E27">
-        <v>61329600</v>
+      <c r="C27" t="n">
+        <v>8.7837E7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14000.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.10908E7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7511,14 +7512,14 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28">
-        <v>70034500</v>
-      </c>
-      <c r="D28">
-        <v>22500</v>
-      </c>
-      <c r="E28">
-        <v>49761700</v>
+      <c r="C28" t="n">
+        <v>8.35197E7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10100.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.49001E7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7528,14 +7529,14 @@
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29">
-        <v>401191200</v>
-      </c>
-      <c r="D29">
-        <v>30400</v>
-      </c>
-      <c r="E29">
-        <v>303537500</v>
+      <c r="C29" t="n">
+        <v>4.37354E8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>22500.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.569212E8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7545,14 +7546,14 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30">
-        <v>469051400</v>
-      </c>
-      <c r="D30">
-        <v>30100</v>
-      </c>
-      <c r="E30">
-        <v>513652300</v>
+      <c r="C30" t="n">
+        <v>5.110802E8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27800.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.315672E8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7562,14 +7563,14 @@
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31">
-        <v>407860800</v>
-      </c>
-      <c r="D31">
-        <v>21000</v>
-      </c>
-      <c r="E31">
-        <v>302167600</v>
+      <c r="C31" t="n">
+        <v>4.401009E8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>45400.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.278267E8</v>
       </c>
     </row>
   </sheetData>

--- a/WorkBook.xlsx
+++ b/WorkBook.xlsx
@@ -7071,13 +7071,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>337000.0</v>
+        <v>153700.0</v>
       </c>
       <c r="D2" t="n">
-        <v>11500.0</v>
+        <v>23600.0</v>
       </c>
       <c r="E2" t="n">
-        <v>141500.0</v>
+        <v>295400.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7088,13 +7088,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>104800.0</v>
+        <v>424600.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3600.0</v>
+        <v>4200.0</v>
       </c>
       <c r="E3" t="n">
-        <v>74800.0</v>
+        <v>344600.0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7105,13 +7105,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>177200.0</v>
+        <v>415300.0</v>
       </c>
       <c r="D4" t="n">
-        <v>15200.0</v>
+        <v>15700.0</v>
       </c>
       <c r="E4" t="n">
-        <v>122900.0</v>
+        <v>377100.0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7122,13 +7122,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3310400.0</v>
+        <v>2407100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>20500.0</v>
+        <v>642100.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1945400.0</v>
+        <v>2426700.0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7139,13 +7139,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>813400.0</v>
+        <v>910700.0</v>
       </c>
       <c r="D6" t="n">
-        <v>22400.0</v>
+        <v>75200.0</v>
       </c>
       <c r="E6" t="n">
-        <v>878800.0</v>
+        <v>1119700.0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7156,13 +7156,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1128200.0</v>
+        <v>1691500.0</v>
       </c>
       <c r="D7" t="n">
-        <v>21900.0</v>
+        <v>19900.0</v>
       </c>
       <c r="E7" t="n">
-        <v>897300.0</v>
+        <v>739900.0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7173,13 +7173,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>4759300.0</v>
+        <v>290300.0</v>
       </c>
       <c r="D8" t="n">
-        <v>50500.0</v>
+        <v>40500.0</v>
       </c>
       <c r="E8" t="n">
-        <v>324600.0</v>
+        <v>381300.0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7190,13 +7190,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3057100.0</v>
+        <v>278000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>67200.0</v>
+        <v>42500.0</v>
       </c>
       <c r="E9" t="n">
-        <v>200200.0</v>
+        <v>160600.0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7207,13 +7207,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>297400.0</v>
+        <v>282300.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40900.0</v>
+        <v>48000.0</v>
       </c>
       <c r="E10" t="n">
-        <v>229700.0</v>
+        <v>290900.0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7224,13 +7224,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.43899E7</v>
+        <v>1.33414E7</v>
       </c>
       <c r="D11" t="n">
-        <v>491100.0</v>
+        <v>1.00285E7</v>
       </c>
       <c r="E11" t="n">
-        <v>6091000.0</v>
+        <v>9805600.0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7241,13 +7241,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1.07024E7</v>
+        <v>1.37813E7</v>
       </c>
       <c r="D12" t="n">
-        <v>224500.0</v>
+        <v>177500.0</v>
       </c>
       <c r="E12" t="n">
-        <v>5527000.0</v>
+        <v>4856600.0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7258,13 +7258,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>6641800.0</v>
+        <v>6378500.0</v>
       </c>
       <c r="D13" t="n">
-        <v>740300.0</v>
+        <v>567000.0</v>
       </c>
       <c r="E13" t="n">
-        <v>6409500.0</v>
+        <v>5020900.0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7275,13 +7275,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>2.82504E7</v>
+        <v>2.16635E7</v>
       </c>
       <c r="D14" t="n">
-        <v>329800.0</v>
+        <v>312100.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.61102E7</v>
+        <v>2.08195E7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7292,13 +7292,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.04706E7</v>
+        <v>2.27599E7</v>
       </c>
       <c r="D15" t="n">
-        <v>680700.0</v>
+        <v>2286400.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.61416E7</v>
+        <v>2.70496E7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7309,13 +7309,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>5.45841E7</v>
+        <v>2.76185E7</v>
       </c>
       <c r="D16" t="n">
-        <v>1043400.0</v>
+        <v>525900.0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.18504E7</v>
+        <v>2.35038E7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7326,13 +7326,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>3.32997E7</v>
+        <v>2.59482E7</v>
       </c>
       <c r="D17" t="n">
-        <v>600700.0</v>
+        <v>381800.0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.49719E7</v>
+        <v>2.07638E7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7343,13 +7343,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3.18083E7</v>
+        <v>4.02421E7</v>
       </c>
       <c r="D18" t="n">
-        <v>1524700.0</v>
+        <v>670000.0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.48412E7</v>
+        <v>1.83443E7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>3.26305E7</v>
+        <v>3.50208E7</v>
       </c>
       <c r="D19" t="n">
-        <v>90300.0</v>
+        <v>285800.0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.90121E7</v>
+        <v>3.61375E7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7377,13 +7377,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>3.63162E7</v>
+        <v>4.68536E7</v>
       </c>
       <c r="D20" t="n">
-        <v>112300.0</v>
+        <v>111100.0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.29064E7</v>
+        <v>3.30816E7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7394,13 +7394,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>3.43655E7</v>
+        <v>4.1532E7</v>
       </c>
       <c r="D21" t="n">
         <v>113400.0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.10322E7</v>
+        <v>4.51023E7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7411,13 +7411,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>3.31263E7</v>
+        <v>3.45801E7</v>
       </c>
       <c r="D22" t="n">
-        <v>103600.0</v>
+        <v>113600.0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.57567E7</v>
+        <v>2.70615E7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7428,13 +7428,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>3.04103E7</v>
+        <v>5.67764E7</v>
       </c>
       <c r="D23" t="n">
-        <v>361500.0</v>
+        <v>1230700.0</v>
       </c>
       <c r="E23" t="n">
-        <v>5.25232E7</v>
+        <v>4.10644E7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7445,13 +7445,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>4.12291E7</v>
+        <v>4.24976E7</v>
       </c>
       <c r="D24" t="n">
-        <v>292600.0</v>
+        <v>208800.0</v>
       </c>
       <c r="E24" t="n">
-        <v>3.90883E7</v>
+        <v>3.10153E7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7462,13 +7462,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>3.45375E7</v>
+        <v>3.17297E7</v>
       </c>
       <c r="D25" t="n">
-        <v>11000.0</v>
+        <v>7900.0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.99888E7</v>
+        <v>2.7019E7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7479,13 +7479,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>1.374902E8</v>
+        <v>1.202175E8</v>
       </c>
       <c r="D26" t="n">
-        <v>10400.0</v>
+        <v>12900.0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.98593E7</v>
+        <v>1.015601E8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7496,13 +7496,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>8.7837E7</v>
+        <v>1.300587E8</v>
       </c>
       <c r="D27" t="n">
-        <v>14000.0</v>
+        <v>13300.0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.10908E7</v>
+        <v>1.000035E8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7513,13 +7513,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>8.35197E7</v>
+        <v>8.74963E7</v>
       </c>
       <c r="D28" t="n">
-        <v>10100.0</v>
+        <v>27200.0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.49001E7</v>
+        <v>5.07048E7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7530,13 +7530,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>4.37354E8</v>
+        <v>4.448871E8</v>
       </c>
       <c r="D29" t="n">
-        <v>22500.0</v>
+        <v>28300.0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.569212E8</v>
+        <v>2.997163E8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7547,13 +7547,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>5.110802E8</v>
+        <v>3.750988E8</v>
       </c>
       <c r="D30" t="n">
-        <v>27800.0</v>
+        <v>36600.0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.315672E8</v>
+        <v>4.079096E8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7564,13 +7564,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>4.401009E8</v>
+        <v>3.579768E8</v>
       </c>
       <c r="D31" t="n">
-        <v>45400.0</v>
+        <v>22100.0</v>
       </c>
       <c r="E31" t="n">
-        <v>4.278267E8</v>
+        <v>2.845538E8</v>
       </c>
     </row>
   </sheetData>

--- a/WorkBook.xlsx
+++ b/WorkBook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\AppData\Local\Temp\Rar$DIa2300.7797\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Escritorio\Task-1-Programming-Methodology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A8780-08A7-4E84-A37A-A186A666505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804EFA3F-926E-4AAA-9D34-C49CFDF9A06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -273,31 +273,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>566400</c:v>
+                  <c:v>293900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161600</c:v>
+                  <c:v>204600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187300</c:v>
+                  <c:v>155700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4514900</c:v>
+                  <c:v>4412600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>802100</c:v>
+                  <c:v>2575500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1744500</c:v>
+                  <c:v>1687800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>523900</c:v>
+                  <c:v>1767400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>490500</c:v>
+                  <c:v>580300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>389000</c:v>
+                  <c:v>467800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,31 +405,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>27000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6600</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3500</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300100</c:v>
+                  <c:v>63500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22200</c:v>
+                  <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41300</c:v>
+                  <c:v>145100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42800</c:v>
+                  <c:v>50200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40700</c:v>
+                  <c:v>40400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,31 +537,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>79200</c:v>
+                  <c:v>89700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118800</c:v>
+                  <c:v>122800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74900</c:v>
+                  <c:v>116600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1967700</c:v>
+                  <c:v>1547800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>879900</c:v>
+                  <c:v>2160600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>891700</c:v>
+                  <c:v>215400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>356900</c:v>
+                  <c:v>211100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>340800</c:v>
+                  <c:v>232500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>411900</c:v>
+                  <c:v>170700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +778,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1039,67 +1039,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4106700</c:v>
+                  <c:v>22728100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3849300</c:v>
+                  <c:v>6175600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6551200</c:v>
+                  <c:v>5825100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17627100</c:v>
+                  <c:v>17335400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20125100</c:v>
+                  <c:v>37243500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10683200</c:v>
+                  <c:v>36888300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62465300</c:v>
+                  <c:v>23381100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17961300</c:v>
+                  <c:v>46565600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17911700</c:v>
+                  <c:v>33539400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26329800</c:v>
+                  <c:v>21860200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36641300</c:v>
+                  <c:v>34649500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25270900</c:v>
+                  <c:v>31332900</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27464200</c:v>
+                  <c:v>37996400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39845400</c:v>
+                  <c:v>47038200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21665200</c:v>
+                  <c:v>22806200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88580000</c:v>
+                  <c:v>99955300</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76476700</c:v>
+                  <c:v>80103400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70034500</c:v>
+                  <c:v>66319900</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>401191200</c:v>
+                  <c:v>433945400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>469051400</c:v>
+                  <c:v>508693500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>407860800</c:v>
+                  <c:v>448697900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,67 +1293,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>135000</c:v>
+                  <c:v>201900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179900</c:v>
+                  <c:v>265700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2872000</c:v>
+                  <c:v>906700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>325200</c:v>
+                  <c:v>1691600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325700</c:v>
+                  <c:v>685100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>211700</c:v>
+                  <c:v>2693300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7087400</c:v>
+                  <c:v>728200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>641800</c:v>
+                  <c:v>4100300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125900</c:v>
+                  <c:v>137900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109300</c:v>
+                  <c:v>107100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101500</c:v>
+                  <c:v>98400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107400</c:v>
+                  <c:v>247700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>124800</c:v>
+                  <c:v>286300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131700</c:v>
+                  <c:v>106000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>178700</c:v>
+                  <c:v>125000</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>20900</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>15700</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>22500</c:v>
+                  <c:v>13100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30400</c:v>
+                  <c:v>31300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30100</c:v>
+                  <c:v>31500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000</c:v>
+                  <c:v>20700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,67 +1547,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3520400</c:v>
+                  <c:v>5644700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35394200</c:v>
+                  <c:v>5400500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64385300</c:v>
+                  <c:v>5675800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18974600</c:v>
+                  <c:v>8839700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16374400</c:v>
+                  <c:v>17685200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8195500</c:v>
+                  <c:v>20498200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22282800</c:v>
+                  <c:v>17623800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19062200</c:v>
+                  <c:v>21641400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12420400</c:v>
+                  <c:v>16252800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22559600</c:v>
+                  <c:v>25628700</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24466100</c:v>
+                  <c:v>19470400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25919900</c:v>
+                  <c:v>20022000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27342300</c:v>
+                  <c:v>63214900</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50492900</c:v>
+                  <c:v>37323000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17190300</c:v>
+                  <c:v>19474600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65661200</c:v>
+                  <c:v>71472200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61329600</c:v>
+                  <c:v>64377900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49761700</c:v>
+                  <c:v>50469900</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>303537500</c:v>
+                  <c:v>370139600</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>513652300</c:v>
+                  <c:v>340938900</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>302167600</c:v>
+                  <c:v>286114700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,7 +1824,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1983,34 +1983,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>566400</c:v>
+                  <c:v>293900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4514900</c:v>
+                  <c:v>4412600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>523900</c:v>
+                  <c:v>1767400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4106700</c:v>
+                  <c:v>22728100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17627100</c:v>
+                  <c:v>17335400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62465300</c:v>
+                  <c:v>23381100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26329800</c:v>
+                  <c:v>21860200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27464200</c:v>
+                  <c:v>37996400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88580000</c:v>
+                  <c:v>99955300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>401191200</c:v>
+                  <c:v>433945400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,34 +2107,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>27000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1300100</c:v>
+                  <c:v>63500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41300</c:v>
+                  <c:v>145100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135000</c:v>
+                  <c:v>201900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325200</c:v>
+                  <c:v>1691600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7087400</c:v>
+                  <c:v>728200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109300</c:v>
+                  <c:v>107100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124800</c:v>
+                  <c:v>286300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20900</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30400</c:v>
+                  <c:v>31300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,34 +2231,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>79200</c:v>
+                  <c:v>89700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1967700</c:v>
+                  <c:v>1547800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>356900</c:v>
+                  <c:v>211100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3520400</c:v>
+                  <c:v>5644700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18974600</c:v>
+                  <c:v>8839700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22282800</c:v>
+                  <c:v>17623800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22559600</c:v>
+                  <c:v>25628700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27342300</c:v>
+                  <c:v>63214900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65661200</c:v>
+                  <c:v>71472200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>303537500</c:v>
+                  <c:v>370139600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2474,7 +2474,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2641,34 +2641,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>161600</c:v>
+                  <c:v>204600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>802100</c:v>
+                  <c:v>2575500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490500</c:v>
+                  <c:v>580300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3849300</c:v>
+                  <c:v>6175600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20125100</c:v>
+                  <c:v>37243500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17961300</c:v>
+                  <c:v>46565600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36641300</c:v>
+                  <c:v>34649500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39845400</c:v>
+                  <c:v>47038200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76476700</c:v>
+                  <c:v>80103400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>469051400</c:v>
+                  <c:v>508693500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,34 +2765,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6600</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22200</c:v>
+                  <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42800</c:v>
+                  <c:v>50200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>179900</c:v>
+                  <c:v>265700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325700</c:v>
+                  <c:v>685100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>641800</c:v>
+                  <c:v>4100300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101500</c:v>
+                  <c:v>98400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131700</c:v>
+                  <c:v>106000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15700</c:v>
+                  <c:v>20900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30100</c:v>
+                  <c:v>31500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2889,34 +2889,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>118800</c:v>
+                  <c:v>122800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>879900</c:v>
+                  <c:v>2160600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340800</c:v>
+                  <c:v>232500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35394200</c:v>
+                  <c:v>5400500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16374400</c:v>
+                  <c:v>17685200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19062200</c:v>
+                  <c:v>21641400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24466100</c:v>
+                  <c:v>19470400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50492900</c:v>
+                  <c:v>37323000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61329600</c:v>
+                  <c:v>64377900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>513652300</c:v>
+                  <c:v>340938900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,7 +3133,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3297,34 +3297,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>187300</c:v>
+                  <c:v>155700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1744500</c:v>
+                  <c:v>1687800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>389000</c:v>
+                  <c:v>467800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6551200</c:v>
+                  <c:v>5825100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10683200</c:v>
+                  <c:v>36888300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17911700</c:v>
+                  <c:v>33539400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25270900</c:v>
+                  <c:v>31332900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21665200</c:v>
+                  <c:v>22806200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70034500</c:v>
+                  <c:v>66319900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>407860800</c:v>
+                  <c:v>448697900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,34 +3421,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3500</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40700</c:v>
+                  <c:v>40400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2872000</c:v>
+                  <c:v>906700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>211700</c:v>
+                  <c:v>2693300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125900</c:v>
+                  <c:v>137900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107400</c:v>
+                  <c:v>247700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>178700</c:v>
+                  <c:v>125000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22500</c:v>
+                  <c:v>13100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21000</c:v>
+                  <c:v>20700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3545,34 +3545,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>74900</c:v>
+                  <c:v>116600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>891700</c:v>
+                  <c:v>215400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411900</c:v>
+                  <c:v>170700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64385300</c:v>
+                  <c:v>5675800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8195500</c:v>
+                  <c:v>20498200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12420400</c:v>
+                  <c:v>16252800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25919900</c:v>
+                  <c:v>20022000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17190300</c:v>
+                  <c:v>19474600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49761700</c:v>
+                  <c:v>50469900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>302167600</c:v>
+                  <c:v>286114700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6964,12 +6964,12 @@
   <dimension ref="A1:CW31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="17.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
@@ -7071,13 +7071,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>153700.0</v>
+        <v>171300.0</v>
       </c>
       <c r="D2" t="n">
-        <v>23600.0</v>
+        <v>13000.0</v>
       </c>
       <c r="E2" t="n">
-        <v>295400.0</v>
+        <v>127500.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7088,13 +7088,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>424600.0</v>
+        <v>168500.0</v>
       </c>
       <c r="D3" t="n">
-        <v>4200.0</v>
+        <v>19800.0</v>
       </c>
       <c r="E3" t="n">
-        <v>344600.0</v>
+        <v>119500.0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7105,13 +7105,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>415300.0</v>
+        <v>1207900.0</v>
       </c>
       <c r="D4" t="n">
-        <v>15700.0</v>
+        <v>10400.0</v>
       </c>
       <c r="E4" t="n">
-        <v>377100.0</v>
+        <v>76400.0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7122,13 +7122,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2407100.0</v>
+        <v>2452700.0</v>
       </c>
       <c r="D5" t="n">
-        <v>642100.0</v>
+        <v>72200.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2426700.0</v>
+        <v>6077800.0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7139,13 +7139,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>910700.0</v>
+        <v>972100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>75200.0</v>
+        <v>75100.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1119700.0</v>
+        <v>776100.0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7156,13 +7156,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1691500.0</v>
+        <v>756800.0</v>
       </c>
       <c r="D7" t="n">
-        <v>19900.0</v>
+        <v>20400.0</v>
       </c>
       <c r="E7" t="n">
-        <v>739900.0</v>
+        <v>7210100.0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7173,13 +7173,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>290300.0</v>
+        <v>744900.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40500.0</v>
+        <v>38800.0</v>
       </c>
       <c r="E8" t="n">
-        <v>381300.0</v>
+        <v>383800.0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7190,13 +7190,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>278000.0</v>
+        <v>415800.0</v>
       </c>
       <c r="D9" t="n">
-        <v>42500.0</v>
+        <v>45800.0</v>
       </c>
       <c r="E9" t="n">
-        <v>160600.0</v>
+        <v>305900.0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7207,13 +7207,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>282300.0</v>
+        <v>646900.0</v>
       </c>
       <c r="D10" t="n">
-        <v>48000.0</v>
+        <v>34700.0</v>
       </c>
       <c r="E10" t="n">
-        <v>290900.0</v>
+        <v>208700.0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7224,13 +7224,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.33414E7</v>
+        <v>1.29804E7</v>
       </c>
       <c r="D11" t="n">
-        <v>1.00285E7</v>
+        <v>353500.0</v>
       </c>
       <c r="E11" t="n">
-        <v>9805600.0</v>
+        <v>2852800.0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7241,13 +7241,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1.37813E7</v>
+        <v>4542700.0</v>
       </c>
       <c r="D12" t="n">
-        <v>177500.0</v>
+        <v>212500.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4856600.0</v>
+        <v>1.13928E7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7258,13 +7258,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>6378500.0</v>
+        <v>1.08294E7</v>
       </c>
       <c r="D13" t="n">
-        <v>567000.0</v>
+        <v>195600.0</v>
       </c>
       <c r="E13" t="n">
-        <v>5020900.0</v>
+        <v>4438200.0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7275,13 +7275,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>2.16635E7</v>
+        <v>2.29988E7</v>
       </c>
       <c r="D14" t="n">
-        <v>312100.0</v>
+        <v>282900.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.08195E7</v>
+        <v>8948700.0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7292,13 +7292,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.27599E7</v>
+        <v>1.65121E7</v>
       </c>
       <c r="D15" t="n">
-        <v>2286400.0</v>
+        <v>372500.0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.70496E7</v>
+        <v>1.61274E7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7309,13 +7309,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>2.76185E7</v>
+        <v>1.82034E7</v>
       </c>
       <c r="D16" t="n">
-        <v>525900.0</v>
+        <v>803100.0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.35038E7</v>
+        <v>1.3277E7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7326,13 +7326,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>2.59482E7</v>
+        <v>2.31123E7</v>
       </c>
       <c r="D17" t="n">
-        <v>381800.0</v>
+        <v>647800.0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.07638E7</v>
+        <v>2.35969E7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7343,13 +7343,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>4.02421E7</v>
+        <v>2.55112E7</v>
       </c>
       <c r="D18" t="n">
-        <v>670000.0</v>
+        <v>2627500.0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.83443E7</v>
+        <v>1.68972E7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>3.50208E7</v>
+        <v>1.95059E7</v>
       </c>
       <c r="D19" t="n">
-        <v>285800.0</v>
+        <v>89200.0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.61375E7</v>
+        <v>1.60778E7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7377,13 +7377,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>4.68536E7</v>
+        <v>2.66197E7</v>
       </c>
       <c r="D20" t="n">
-        <v>111100.0</v>
+        <v>58800.0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.30816E7</v>
+        <v>2.78558E7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7394,13 +7394,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>4.1532E7</v>
+        <v>4.91121E7</v>
       </c>
       <c r="D21" t="n">
-        <v>113400.0</v>
+        <v>57200.0</v>
       </c>
       <c r="E21" t="n">
-        <v>4.51023E7</v>
+        <v>4.16553E7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7411,13 +7411,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>3.45801E7</v>
+        <v>3.5786E7</v>
       </c>
       <c r="D22" t="n">
-        <v>113600.0</v>
+        <v>109000.0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.70615E7</v>
+        <v>2.36103E7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7428,13 +7428,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>5.67764E7</v>
+        <v>3.51921E7</v>
       </c>
       <c r="D23" t="n">
-        <v>1230700.0</v>
+        <v>1134400.0</v>
       </c>
       <c r="E23" t="n">
-        <v>4.10644E7</v>
+        <v>3.57019E7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7445,13 +7445,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>4.24976E7</v>
+        <v>2.92398E7</v>
       </c>
       <c r="D24" t="n">
-        <v>208800.0</v>
+        <v>411800.0</v>
       </c>
       <c r="E24" t="n">
-        <v>3.10153E7</v>
+        <v>1.62507E7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7462,13 +7462,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>3.17297E7</v>
+        <v>2.38576E7</v>
       </c>
       <c r="D25" t="n">
-        <v>7900.0</v>
+        <v>8800.0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.7019E7</v>
+        <v>1.89073E7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7479,13 +7479,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>1.202175E8</v>
+        <v>9.07018E7</v>
       </c>
       <c r="D26" t="n">
-        <v>12900.0</v>
+        <v>13200.0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.015601E8</v>
+        <v>8.13566E7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7496,13 +7496,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>1.300587E8</v>
+        <v>8.74527E7</v>
       </c>
       <c r="D27" t="n">
-        <v>13300.0</v>
+        <v>25500.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.000035E8</v>
+        <v>6.73246E7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7513,13 +7513,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>8.74963E7</v>
+        <v>6.45243E7</v>
       </c>
       <c r="D28" t="n">
-        <v>27200.0</v>
+        <v>33300.0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.07048E7</v>
+        <v>5.1104E7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7530,13 +7530,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>4.448871E8</v>
+        <v>3.92567E8</v>
       </c>
       <c r="D29" t="n">
-        <v>28300.0</v>
+        <v>33100.0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.997163E8</v>
+        <v>3.594646E8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7547,13 +7547,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>3.750988E8</v>
+        <v>3.676168E8</v>
       </c>
       <c r="D30" t="n">
-        <v>36600.0</v>
+        <v>26800.0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.079096E8</v>
+        <v>2.805072E8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7564,13 +7564,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>3.579768E8</v>
+        <v>4.302193E8</v>
       </c>
       <c r="D31" t="n">
-        <v>22100.0</v>
+        <v>30200.0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.845538E8</v>
+        <v>3.286726E8</v>
       </c>
     </row>
   </sheetData>
